--- a/biology/Botanique/Rosier_des_champs/Rosier_des_champs.xlsx
+++ b/biology/Botanique/Rosier_des_champs/Rosier_des_champs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa arvensis
-Le rosier des champs, rosier rampant ou églantier des champs (Rosa arvensis)[1] est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier appartenant à la section des Synstylae.
+Le rosier des champs, rosier rampant ou églantier des champs (Rosa arvensis) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier appartenant à la section des Synstylae.
 C'est un arbuste à feuilles caduques et à floraison non remontante. Il pousse dans les bois et les haies notamment en Europe occidentale et en Turquie.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Source : Baseflor 2004[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Source : Baseflor 2004.
 Tiges couvertes d'aiguillons recourbés en crochets, pourpres la première année, feuillues d'un vert mat ensuite, qui traînent au sol et marcottent (s'enracinent).
 Organes reproducteurs
 Couleur dominante des fleurs : blanc ivoire
@@ -557,13 +571,15 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il y en a eu jusqu'à environ 50 variétés qui ont presque toutes disparu. Il en reste trois, tous très vigoureux :
 'Splendens', ou 'Myrrh-Scented Rose', ou 'Ayrshire Splendens' qui, palissé, monte à 5 mètres, aux fleurs en coupe d'un blanc ivoire bordé de carmin, remarquables par leur odeur de myrrhe, découverte en 1776 dans un jardin près d'Ayr.
 'Venusta pendula',  blanc, sans odeur,
 Rosa arvensis ayrshirea une forme semi-double qui aurait disparu
-'Bennet's Seedling' (Rosa thoresbyana) aux gros bouquets de fleurs semi-doubles roses au parfum de myrrhe[3].</t>
+'Bennet's Seedling' (Rosa thoresbyana) aux gros bouquets de fleurs semi-doubles roses au parfum de myrrhe.</t>
         </is>
       </c>
     </row>
@@ -591,9 +607,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fleurs en bouquets sont blanches, parfumées et nombreuses. Ce rosier supporte la mi-ombre. On ne doit pas le tailler car les branches mortes servent de tuteur aux nouvelles tiges[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs en bouquets sont blanches, parfumées et nombreuses. Ce rosier supporte la mi-ombre. On ne doit pas le tailler car les branches mortes servent de tuteur aux nouvelles tiges.
 </t>
         </is>
       </c>
